--- a/config_3.30/rank_server.xlsx
+++ b/config_3.30/rank_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="591">
   <si>
     <t>id|</t>
   </si>
@@ -1659,10 +1659,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>xxlzb_007_rank</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>五星排行榜</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -2487,6 +2483,46 @@
   </si>
   <si>
     <t>300,307,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxlzb_007_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxlzb_008_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>消消乐争霸</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>308,315,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>309,316,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>310,317,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>311,318,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>312,319,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>313,320,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>314,321,</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2629,7 +2665,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2732,6 +2768,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3009,11 +3051,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U43"/>
+  <dimension ref="A1:U44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A43" sqref="A43:XFD43"/>
+      <selection pane="bottomLeft" activeCell="I46" sqref="I46:I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4432,7 +4474,7 @@
         <v>332</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E40" s="26">
         <v>1616457600</v>
@@ -4464,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>333</v>
+        <v>581</v>
       </c>
       <c r="D41" s="26" t="s">
         <v>264</v>
@@ -4499,10 +4541,10 @@
         <v>1</v>
       </c>
       <c r="C42" s="27" t="s">
+        <v>348</v>
+      </c>
+      <c r="D42" s="27" t="s">
         <v>349</v>
-      </c>
-      <c r="D42" s="27" t="s">
-        <v>350</v>
       </c>
       <c r="E42" s="26">
         <v>1615046400</v>
@@ -4511,7 +4553,7 @@
         <v>2555555555</v>
       </c>
       <c r="G42" s="26" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H42" s="26" t="s">
         <v>14</v>
@@ -4531,10 +4573,10 @@
         <v>1</v>
       </c>
       <c r="C43" s="38" t="s">
+        <v>564</v>
+      </c>
+      <c r="D43" s="38" t="s">
         <v>565</v>
-      </c>
-      <c r="D43" s="38" t="s">
-        <v>566</v>
       </c>
       <c r="E43" s="38">
         <v>1617062400</v>
@@ -4543,7 +4585,7 @@
         <v>1617638399</v>
       </c>
       <c r="G43" s="38" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H43" s="38" t="s">
         <v>14</v>
@@ -4556,6 +4598,41 @@
       </c>
       <c r="L43" s="38">
         <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="38">
+        <v>43</v>
+      </c>
+      <c r="B44" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" s="38" t="s">
+        <v>582</v>
+      </c>
+      <c r="D44" s="38" t="s">
+        <v>583</v>
+      </c>
+      <c r="E44" s="38">
+        <v>1617062400</v>
+      </c>
+      <c r="F44" s="38">
+        <v>1617638399</v>
+      </c>
+      <c r="G44" s="39" t="s">
+        <v>282</v>
+      </c>
+      <c r="H44" s="38" t="s">
+        <v>281</v>
+      </c>
+      <c r="I44" s="38">
+        <v>42</v>
+      </c>
+      <c r="K44" s="38">
+        <v>43</v>
+      </c>
+      <c r="L44" s="38">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -4567,11 +4644,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H90"/>
+  <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A89" sqref="A89:D90"/>
+      <selection pane="bottomLeft" activeCell="A91" sqref="A91:A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5856,6 +5933,62 @@
         <v>43</v>
       </c>
     </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="36">
+        <v>90</v>
+      </c>
+      <c r="B91" s="36">
+        <v>42</v>
+      </c>
+      <c r="C91" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="D91" s="36">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" s="36">
+        <v>91</v>
+      </c>
+      <c r="B92" s="36">
+        <v>42</v>
+      </c>
+      <c r="C92" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="D92" s="36">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" s="36">
+        <v>92</v>
+      </c>
+      <c r="B93" s="36">
+        <v>42</v>
+      </c>
+      <c r="C93" s="40" t="s">
+        <v>300</v>
+      </c>
+      <c r="D93" s="36">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" s="36">
+        <v>93</v>
+      </c>
+      <c r="B94" s="36">
+        <v>42</v>
+      </c>
+      <c r="C94" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D94" s="36">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5865,10 +5998,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67:E68"/>
+      <selection activeCell="A67" sqref="A67:B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7003,10 +7136,10 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="2">
+      <c r="A67" s="36">
         <v>66</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="36">
         <v>43</v>
       </c>
       <c r="C67" s="36" t="s">
@@ -7020,10 +7153,10 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="2">
+      <c r="A68" s="36">
         <v>67</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68" s="36">
         <v>43</v>
       </c>
       <c r="C68" s="36" t="s">
@@ -7034,6 +7167,40 @@
       </c>
       <c r="E68" s="36">
         <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="36">
+        <v>68</v>
+      </c>
+      <c r="B69" s="36">
+        <v>44</v>
+      </c>
+      <c r="C69" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="D69" s="36">
+        <v>240000</v>
+      </c>
+      <c r="E69" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="36">
+        <v>69</v>
+      </c>
+      <c r="B70" s="36">
+        <v>44</v>
+      </c>
+      <c r="C70" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="D70" s="36">
+        <v>500</v>
+      </c>
+      <c r="E70" s="36">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -7143,11 +7310,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A40" sqref="A40:XFD42"/>
+      <selection pane="bottomLeft" activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8151,6 +8318,29 @@
         <v>10</v>
       </c>
     </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2">
+        <v>20</v>
+      </c>
+      <c r="D44" s="2">
+        <v>100</v>
+      </c>
+      <c r="E44" s="2">
+        <v>20</v>
+      </c>
+      <c r="F44" s="2">
+        <v>180</v>
+      </c>
+      <c r="G44" s="2">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8159,11 +8349,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A38" sqref="A38:XFD40"/>
+      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8746,6 +8936,20 @@
         <v>40</v>
       </c>
     </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2">
+        <v>45</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8755,11 +8959,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E44" sqref="E44:E46"/>
+      <selection pane="bottomLeft" activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9285,9 +9489,20 @@
         <v>44</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C45" s="36">
+        <v>1617638399</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="36">
+        <v>45</v>
+      </c>
+      <c r="B46" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="C46" s="36">
         <v>1617638399</v>
       </c>
     </row>
@@ -9299,11 +9514,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I274"/>
+  <dimension ref="A1:I281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A242" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M266" sqref="M266"/>
+      <pane ySplit="1" topLeftCell="A251" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I277" sqref="I277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9360,7 +9575,7 @@
         <v>115</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>116</v>
@@ -9383,7 +9598,7 @@
         <v>5000000000</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>116</v>
@@ -9406,7 +9621,7 @@
         <v>1500000000</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>116</v>
@@ -9429,7 +9644,7 @@
         <v>500000000</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>116</v>
@@ -9452,7 +9667,7 @@
         <v>100000000</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>116</v>
@@ -9472,7 +9687,7 @@
         <v>30000000</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>116</v>
@@ -9492,7 +9707,7 @@
         <v>5000000</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>116</v>
@@ -9512,7 +9727,7 @@
         <v>2000000</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>116</v>
@@ -9534,7 +9749,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>121</v>
@@ -9555,7 +9770,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>121</v>
@@ -9575,7 +9790,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>121</v>
@@ -9595,7 +9810,7 @@
         <v>6</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>121</v>
@@ -9615,7 +9830,7 @@
         <v>10</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>121</v>
@@ -9637,7 +9852,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>122</v>
@@ -9660,7 +9875,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>122</v>
@@ -9683,7 +9898,7 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>122</v>
@@ -9706,7 +9921,7 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>122</v>
@@ -9729,7 +9944,7 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>122</v>
@@ -9752,7 +9967,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>122</v>
@@ -9775,7 +9990,7 @@
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>122</v>
@@ -9798,7 +10013,7 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>122</v>
@@ -9821,7 +10036,7 @@
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>122</v>
@@ -9844,7 +10059,7 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>122</v>
@@ -9867,7 +10082,7 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>122</v>
@@ -9890,7 +10105,7 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>122</v>
@@ -9913,7 +10128,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H27" s="8" t="s">
         <v>122</v>
@@ -9936,7 +10151,7 @@
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>122</v>
@@ -9958,7 +10173,7 @@
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>122</v>
@@ -9980,7 +10195,7 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>122</v>
@@ -10002,7 +10217,7 @@
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>122</v>
@@ -10024,7 +10239,7 @@
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>122</v>
@@ -10046,7 +10261,7 @@
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>122</v>
@@ -10068,7 +10283,7 @@
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>122</v>
@@ -10090,7 +10305,7 @@
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>122</v>
@@ -10112,7 +10327,7 @@
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>122</v>
@@ -10134,7 +10349,7 @@
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>122</v>
@@ -10156,7 +10371,7 @@
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>122</v>
@@ -10178,7 +10393,7 @@
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H39" s="8" t="s">
         <v>122</v>
@@ -10201,7 +10416,7 @@
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>122</v>
@@ -10223,7 +10438,7 @@
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>122</v>
@@ -10245,7 +10460,7 @@
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>122</v>
@@ -10267,7 +10482,7 @@
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>122</v>
@@ -10289,7 +10504,7 @@
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>122</v>
@@ -10311,7 +10526,7 @@
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>122</v>
@@ -10333,7 +10548,7 @@
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>122</v>
@@ -10355,7 +10570,7 @@
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>122</v>
@@ -10377,7 +10592,7 @@
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>122</v>
@@ -10399,7 +10614,7 @@
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>122</v>
@@ -10421,7 +10636,7 @@
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
       <c r="G50" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H50" s="8" t="s">
         <v>122</v>
@@ -10444,7 +10659,7 @@
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>122</v>
@@ -10466,7 +10681,7 @@
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H52" s="6" t="s">
         <v>122</v>
@@ -10488,7 +10703,7 @@
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>122</v>
@@ -10510,7 +10725,7 @@
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H54" s="6" t="s">
         <v>122</v>
@@ -10532,7 +10747,7 @@
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
       <c r="G55" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H55" s="6" t="s">
         <v>122</v>
@@ -10554,7 +10769,7 @@
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H56" s="6" t="s">
         <v>122</v>
@@ -10576,7 +10791,7 @@
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
       <c r="G57" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H57" s="8" t="s">
         <v>122</v>
@@ -10598,7 +10813,7 @@
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
       <c r="G58" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H58" s="6" t="s">
         <v>122</v>
@@ -10620,7 +10835,7 @@
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
       <c r="G59" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>122</v>
@@ -10642,7 +10857,7 @@
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H60" s="6" t="s">
         <v>122</v>
@@ -10664,7 +10879,7 @@
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
       <c r="G61" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H61" s="6" t="s">
         <v>122</v>
@@ -10686,7 +10901,7 @@
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
       <c r="G62" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H62" s="6" t="s">
         <v>122</v>
@@ -10708,7 +10923,7 @@
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
       <c r="G63" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H63" s="6" t="s">
         <v>122</v>
@@ -10730,7 +10945,7 @@
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
       <c r="G64" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H64" s="8" t="s">
         <v>122</v>
@@ -10752,7 +10967,7 @@
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
       <c r="G65" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H65" s="6" t="s">
         <v>122</v>
@@ -10774,7 +10989,7 @@
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
       <c r="G66" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H66" s="6" t="s">
         <v>122</v>
@@ -10796,7 +11011,7 @@
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
       <c r="G67" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H67" s="6" t="s">
         <v>122</v>
@@ -10818,7 +11033,7 @@
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
       <c r="G68" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H68" s="6" t="s">
         <v>122</v>
@@ -10840,7 +11055,7 @@
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
       <c r="G69" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H69" s="6" t="s">
         <v>122</v>
@@ -10862,7 +11077,7 @@
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
       <c r="G70" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H70" s="6" t="s">
         <v>122</v>
@@ -10884,7 +11099,7 @@
       <c r="E71" s="11"/>
       <c r="F71" s="11"/>
       <c r="G71" s="11" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H71" s="12" t="s">
         <v>136</v>
@@ -10907,7 +11122,7 @@
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
       <c r="G72" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H72" s="6" t="s">
         <v>122</v>
@@ -10930,7 +11145,7 @@
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
       <c r="G73" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H73" s="6" t="s">
         <v>122</v>
@@ -10953,7 +11168,7 @@
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
       <c r="G74" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H74" s="6" t="s">
         <v>122</v>
@@ -10976,7 +11191,7 @@
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
       <c r="G75" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H75" s="6" t="s">
         <v>122</v>
@@ -10999,7 +11214,7 @@
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
       <c r="G76" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H76" s="6" t="s">
         <v>122</v>
@@ -11022,7 +11237,7 @@
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
       <c r="G77" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H77" s="6" t="s">
         <v>122</v>
@@ -11045,7 +11260,7 @@
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
       <c r="G78" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H78" s="6" t="s">
         <v>122</v>
@@ -11068,7 +11283,7 @@
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
       <c r="G79" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H79" s="6" t="s">
         <v>122</v>
@@ -11091,7 +11306,7 @@
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
       <c r="G80" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H80" s="6" t="s">
         <v>122</v>
@@ -11114,7 +11329,7 @@
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
       <c r="G81" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H81" s="6" t="s">
         <v>122</v>
@@ -11137,7 +11352,7 @@
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
       <c r="G82" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H82" s="6" t="s">
         <v>122</v>
@@ -11160,7 +11375,7 @@
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
       <c r="G83" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H83" s="6" t="s">
         <v>122</v>
@@ -11183,7 +11398,7 @@
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
       <c r="G84" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H84" s="6" t="s">
         <v>122</v>
@@ -11206,7 +11421,7 @@
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
       <c r="G85" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H85" s="6" t="s">
         <v>122</v>
@@ -11229,7 +11444,7 @@
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
       <c r="G86" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H86" s="6" t="s">
         <v>122</v>
@@ -11252,7 +11467,7 @@
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
       <c r="G87" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H87" s="6" t="s">
         <v>122</v>
@@ -11275,7 +11490,7 @@
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
       <c r="G88" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H88" s="6" t="s">
         <v>122</v>
@@ -11298,7 +11513,7 @@
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
       <c r="G89" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H89" s="6" t="s">
         <v>122</v>
@@ -11321,7 +11536,7 @@
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
       <c r="G90" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H90" s="6" t="s">
         <v>122</v>
@@ -11344,7 +11559,7 @@
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
       <c r="G91" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H91" s="6" t="s">
         <v>122</v>
@@ -11367,7 +11582,7 @@
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
       <c r="G92" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H92" s="6" t="s">
         <v>122</v>
@@ -11390,7 +11605,7 @@
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
       <c r="G93" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H93" s="6" t="s">
         <v>122</v>
@@ -11413,7 +11628,7 @@
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
       <c r="G94" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H94" s="6" t="s">
         <v>122</v>
@@ -11436,7 +11651,7 @@
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
       <c r="G95" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H95" s="6" t="s">
         <v>122</v>
@@ -11459,7 +11674,7 @@
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
       <c r="G96" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H96" s="6" t="s">
         <v>122</v>
@@ -11482,7 +11697,7 @@
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
       <c r="G97" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H97" s="6" t="s">
         <v>122</v>
@@ -11505,7 +11720,7 @@
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
       <c r="G98" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H98" s="6" t="s">
         <v>122</v>
@@ -11528,7 +11743,7 @@
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
       <c r="G99" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H99" s="6" t="s">
         <v>122</v>
@@ -11551,7 +11766,7 @@
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
       <c r="G100" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H100" s="6" t="s">
         <v>122</v>
@@ -11574,7 +11789,7 @@
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
       <c r="G101" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H101" s="6" t="s">
         <v>122</v>
@@ -11597,7 +11812,7 @@
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
       <c r="G102" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H102" s="6" t="s">
         <v>122</v>
@@ -11620,7 +11835,7 @@
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
       <c r="G103" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H103" s="6" t="s">
         <v>122</v>
@@ -11643,7 +11858,7 @@
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
       <c r="G104" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H104" s="6" t="s">
         <v>122</v>
@@ -11666,7 +11881,7 @@
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
       <c r="G105" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H105" s="6" t="s">
         <v>122</v>
@@ -11689,7 +11904,7 @@
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
       <c r="G106" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H106" s="6" t="s">
         <v>122</v>
@@ -11712,7 +11927,7 @@
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
       <c r="G107" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H107" s="6" t="s">
         <v>122</v>
@@ -11735,7 +11950,7 @@
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
       <c r="G108" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H108" s="6" t="s">
         <v>122</v>
@@ -11758,7 +11973,7 @@
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
       <c r="G109" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H109" s="6" t="s">
         <v>122</v>
@@ -11781,7 +11996,7 @@
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
       <c r="G110" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H110" s="6" t="s">
         <v>122</v>
@@ -11804,7 +12019,7 @@
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
       <c r="G111" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H111" s="6" t="s">
         <v>122</v>
@@ -11827,7 +12042,7 @@
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
       <c r="G112" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H112" s="6" t="s">
         <v>122</v>
@@ -11850,7 +12065,7 @@
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
       <c r="G113" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H113" s="6" t="s">
         <v>122</v>
@@ -11873,7 +12088,7 @@
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
       <c r="G114" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H114" s="6" t="s">
         <v>122</v>
@@ -11896,7 +12111,7 @@
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
       <c r="G115" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H115" s="6" t="s">
         <v>122</v>
@@ -11919,7 +12134,7 @@
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
       <c r="G116" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H116" s="6" t="s">
         <v>122</v>
@@ -11942,7 +12157,7 @@
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
       <c r="G117" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H117" s="6" t="s">
         <v>122</v>
@@ -11965,7 +12180,7 @@
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
       <c r="G118" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H118" s="6" t="s">
         <v>122</v>
@@ -11988,7 +12203,7 @@
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
       <c r="G119" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H119" s="6" t="s">
         <v>122</v>
@@ -12011,7 +12226,7 @@
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
       <c r="G120" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H120" s="6" t="s">
         <v>122</v>
@@ -12034,7 +12249,7 @@
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
       <c r="G121" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H121" s="6" t="s">
         <v>122</v>
@@ -12057,7 +12272,7 @@
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
       <c r="G122" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H122" s="6" t="s">
         <v>122</v>
@@ -12080,7 +12295,7 @@
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
       <c r="G123" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H123" s="6" t="s">
         <v>122</v>
@@ -12103,7 +12318,7 @@
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
       <c r="G124" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H124" s="6" t="s">
         <v>122</v>
@@ -12126,7 +12341,7 @@
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
       <c r="G125" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H125" s="20" t="s">
         <v>219</v>
@@ -12149,7 +12364,7 @@
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
       <c r="G126" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H126" s="20" t="s">
         <v>219</v>
@@ -12171,7 +12386,7 @@
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
       <c r="G127" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H127" s="20" t="s">
         <v>136</v>
@@ -12194,7 +12409,7 @@
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
       <c r="G128" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H128" s="20" t="s">
         <v>136</v>
@@ -12216,7 +12431,7 @@
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
       <c r="G129" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H129" s="20" t="s">
         <v>136</v>
@@ -12238,7 +12453,7 @@
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
       <c r="G130" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H130" s="6" t="s">
         <v>122</v>
@@ -12260,7 +12475,7 @@
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
       <c r="G131" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H131" s="6" t="s">
         <v>122</v>
@@ -12282,7 +12497,7 @@
       <c r="E132" s="5"/>
       <c r="F132" s="5"/>
       <c r="G132" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H132" s="6" t="s">
         <v>122</v>
@@ -12304,7 +12519,7 @@
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
       <c r="G133" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H133" s="6" t="s">
         <v>122</v>
@@ -12326,7 +12541,7 @@
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
       <c r="G134" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H134" s="6" t="s">
         <v>122</v>
@@ -12348,7 +12563,7 @@
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
       <c r="G135" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H135" s="6" t="s">
         <v>122</v>
@@ -12370,7 +12585,7 @@
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
       <c r="G136" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H136" s="6" t="s">
         <v>122</v>
@@ -12392,7 +12607,7 @@
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
       <c r="G137" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H137" s="6" t="s">
         <v>122</v>
@@ -12414,7 +12629,7 @@
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
       <c r="G138" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H138" s="6" t="s">
         <v>122</v>
@@ -12436,7 +12651,7 @@
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
       <c r="G139" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H139" s="6" t="s">
         <v>122</v>
@@ -12458,7 +12673,7 @@
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
       <c r="G140" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H140" s="6" t="s">
         <v>122</v>
@@ -12480,7 +12695,7 @@
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
       <c r="G141" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H141" s="6" t="s">
         <v>122</v>
@@ -12502,7 +12717,7 @@
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
       <c r="G142" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H142" s="6" t="s">
         <v>122</v>
@@ -12524,7 +12739,7 @@
       <c r="E143" s="5"/>
       <c r="F143" s="5"/>
       <c r="G143" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H143" s="6" t="s">
         <v>122</v>
@@ -12546,7 +12761,7 @@
       <c r="E144" s="5"/>
       <c r="F144" s="5"/>
       <c r="G144" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H144" s="6" t="s">
         <v>122</v>
@@ -12568,7 +12783,7 @@
       <c r="E145" s="5"/>
       <c r="F145" s="5"/>
       <c r="G145" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H145" s="6" t="s">
         <v>122</v>
@@ -12590,7 +12805,7 @@
       <c r="E146" s="5"/>
       <c r="F146" s="5"/>
       <c r="G146" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H146" s="6" t="s">
         <v>122</v>
@@ -12612,7 +12827,7 @@
       <c r="E147" s="5"/>
       <c r="F147" s="5"/>
       <c r="G147" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H147" s="6" t="s">
         <v>122</v>
@@ -12634,7 +12849,7 @@
       <c r="E148" s="5"/>
       <c r="F148" s="5"/>
       <c r="G148" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H148" s="6" t="s">
         <v>122</v>
@@ -12656,7 +12871,7 @@
       <c r="E149" s="5"/>
       <c r="F149" s="5"/>
       <c r="G149" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H149" s="6" t="s">
         <v>122</v>
@@ -12678,7 +12893,7 @@
       <c r="E150" s="5"/>
       <c r="F150" s="5"/>
       <c r="G150" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H150" s="6" t="s">
         <v>122</v>
@@ -12700,7 +12915,7 @@
       <c r="E151" s="5"/>
       <c r="F151" s="5"/>
       <c r="G151" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H151" s="6" t="s">
         <v>122</v>
@@ -12722,7 +12937,7 @@
       <c r="E152" s="5"/>
       <c r="F152" s="5"/>
       <c r="G152" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H152" s="6" t="s">
         <v>122</v>
@@ -12744,7 +12959,7 @@
       <c r="E153" s="5"/>
       <c r="F153" s="5"/>
       <c r="G153" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H153" s="6" t="s">
         <v>122</v>
@@ -12766,7 +12981,7 @@
       <c r="E154" s="5"/>
       <c r="F154" s="5"/>
       <c r="G154" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H154" s="6" t="s">
         <v>122</v>
@@ -12788,7 +13003,7 @@
       <c r="E155" s="5"/>
       <c r="F155" s="5"/>
       <c r="G155" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H155" s="6" t="s">
         <v>122</v>
@@ -12810,7 +13025,7 @@
       <c r="E156" s="5"/>
       <c r="F156" s="5"/>
       <c r="G156" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H156" s="6" t="s">
         <v>122</v>
@@ -12832,7 +13047,7 @@
       <c r="E157" s="5"/>
       <c r="F157" s="5"/>
       <c r="G157" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H157" s="6" t="s">
         <v>122</v>
@@ -12854,7 +13069,7 @@
       <c r="E158" s="5"/>
       <c r="F158" s="5"/>
       <c r="G158" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H158" s="6" t="s">
         <v>122</v>
@@ -12876,7 +13091,7 @@
       <c r="E159" s="5"/>
       <c r="F159" s="5"/>
       <c r="G159" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H159" s="6" t="s">
         <v>122</v>
@@ -12898,7 +13113,7 @@
       <c r="E160" s="5"/>
       <c r="F160" s="5"/>
       <c r="G160" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H160" s="6" t="s">
         <v>122</v>
@@ -12920,7 +13135,7 @@
       <c r="E161" s="5"/>
       <c r="F161" s="5"/>
       <c r="G161" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H161" s="6" t="s">
         <v>122</v>
@@ -12942,7 +13157,7 @@
       <c r="E162" s="5"/>
       <c r="F162" s="5"/>
       <c r="G162" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H162" s="6" t="s">
         <v>122</v>
@@ -12964,7 +13179,7 @@
       <c r="E163" s="5"/>
       <c r="F163" s="5"/>
       <c r="G163" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H163" s="6" t="s">
         <v>122</v>
@@ -12986,7 +13201,7 @@
       <c r="E164" s="5"/>
       <c r="F164" s="5"/>
       <c r="G164" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H164" s="6" t="s">
         <v>122</v>
@@ -13008,7 +13223,7 @@
       <c r="E165" s="5"/>
       <c r="F165" s="5"/>
       <c r="G165" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H165" s="6" t="s">
         <v>122</v>
@@ -13030,7 +13245,7 @@
       <c r="E166" s="5"/>
       <c r="F166" s="5"/>
       <c r="G166" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H166" s="6" t="s">
         <v>122</v>
@@ -13052,7 +13267,7 @@
       <c r="E167" s="5"/>
       <c r="F167" s="5"/>
       <c r="G167" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H167" s="6" t="s">
         <v>122</v>
@@ -13074,7 +13289,7 @@
       <c r="E168" s="5"/>
       <c r="F168" s="5"/>
       <c r="G168" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H168" s="6" t="s">
         <v>122</v>
@@ -13096,7 +13311,7 @@
       <c r="E169" s="5"/>
       <c r="F169" s="5"/>
       <c r="G169" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H169" s="6" t="s">
         <v>122</v>
@@ -13118,7 +13333,7 @@
       <c r="E170" s="5"/>
       <c r="F170" s="5"/>
       <c r="G170" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H170" s="6" t="s">
         <v>122</v>
@@ -13140,7 +13355,7 @@
       <c r="E171" s="5"/>
       <c r="F171" s="5"/>
       <c r="G171" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H171" s="6" t="s">
         <v>122</v>
@@ -13162,7 +13377,7 @@
       <c r="E172" s="5"/>
       <c r="F172" s="5"/>
       <c r="G172" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H172" s="6" t="s">
         <v>122</v>
@@ -13184,7 +13399,7 @@
       <c r="E173" s="5"/>
       <c r="F173" s="5"/>
       <c r="G173" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H173" s="6" t="s">
         <v>122</v>
@@ -13206,7 +13421,7 @@
       <c r="E174" s="5"/>
       <c r="F174" s="5"/>
       <c r="G174" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H174" s="6" t="s">
         <v>122</v>
@@ -13228,7 +13443,7 @@
       <c r="E175" s="5"/>
       <c r="F175" s="5"/>
       <c r="G175" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H175" s="6" t="s">
         <v>122</v>
@@ -13250,7 +13465,7 @@
       <c r="E176" s="5"/>
       <c r="F176" s="5"/>
       <c r="G176" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H176" s="6" t="s">
         <v>122</v>
@@ -13272,7 +13487,7 @@
       <c r="E177" s="5"/>
       <c r="F177" s="5"/>
       <c r="G177" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H177" s="6" t="s">
         <v>122</v>
@@ -13294,7 +13509,7 @@
       <c r="E178" s="5"/>
       <c r="F178" s="5"/>
       <c r="G178" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H178" s="6" t="s">
         <v>122</v>
@@ -13316,7 +13531,7 @@
       <c r="E179" s="5"/>
       <c r="F179" s="5"/>
       <c r="G179" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H179" s="6" t="s">
         <v>122</v>
@@ -13338,7 +13553,7 @@
       <c r="E180" s="5"/>
       <c r="F180" s="5"/>
       <c r="G180" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H180" s="6" t="s">
         <v>122</v>
@@ -13360,7 +13575,7 @@
       <c r="E181" s="5"/>
       <c r="F181" s="5"/>
       <c r="G181" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H181" s="6" t="s">
         <v>122</v>
@@ -13382,7 +13597,7 @@
       <c r="E182" s="5"/>
       <c r="F182" s="5"/>
       <c r="G182" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H182" s="6" t="s">
         <v>122</v>
@@ -13404,7 +13619,7 @@
       <c r="E183" s="5"/>
       <c r="F183" s="5"/>
       <c r="G183" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H183" s="6" t="s">
         <v>122</v>
@@ -13426,7 +13641,7 @@
       <c r="E184" s="5"/>
       <c r="F184" s="5"/>
       <c r="G184" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H184" s="6" t="s">
         <v>122</v>
@@ -13448,7 +13663,7 @@
       <c r="E185" s="5"/>
       <c r="F185" s="5"/>
       <c r="G185" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H185" s="6" t="s">
         <v>122</v>
@@ -13470,7 +13685,7 @@
       <c r="E186" s="5"/>
       <c r="F186" s="5"/>
       <c r="G186" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H186" s="6" t="s">
         <v>122</v>
@@ -13493,7 +13708,7 @@
       <c r="E187" s="5"/>
       <c r="F187" s="5"/>
       <c r="G187" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H187" s="6" t="s">
         <v>122</v>
@@ -13516,7 +13731,7 @@
       <c r="E188" s="5"/>
       <c r="F188" s="5"/>
       <c r="G188" s="5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H188" s="6" t="s">
         <v>122</v>
@@ -13539,7 +13754,7 @@
       <c r="E189" s="5"/>
       <c r="F189" s="5"/>
       <c r="G189" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H189" s="6" t="s">
         <v>122</v>
@@ -13562,7 +13777,7 @@
       <c r="E190" s="5"/>
       <c r="F190" s="5"/>
       <c r="G190" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H190" s="6" t="s">
         <v>122</v>
@@ -13585,7 +13800,7 @@
       <c r="E191" s="5"/>
       <c r="F191" s="5"/>
       <c r="G191" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H191" s="6" t="s">
         <v>122</v>
@@ -13608,7 +13823,7 @@
       <c r="E192" s="5"/>
       <c r="F192" s="5"/>
       <c r="G192" s="5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H192" s="6" t="s">
         <v>122</v>
@@ -13631,7 +13846,7 @@
       <c r="E193" s="5"/>
       <c r="F193" s="5"/>
       <c r="G193" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H193" s="6" t="s">
         <v>122</v>
@@ -13654,7 +13869,7 @@
       <c r="E194" s="5"/>
       <c r="F194" s="5"/>
       <c r="G194" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H194" s="6" t="s">
         <v>122</v>
@@ -13677,7 +13892,7 @@
       <c r="E195" s="5"/>
       <c r="F195" s="5"/>
       <c r="G195" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H195" s="6" t="s">
         <v>122</v>
@@ -13700,7 +13915,7 @@
       <c r="E196" s="5"/>
       <c r="F196" s="5"/>
       <c r="G196" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H196" s="6" t="s">
         <v>122</v>
@@ -13723,7 +13938,7 @@
       <c r="E197" s="5"/>
       <c r="F197" s="5"/>
       <c r="G197" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H197" s="6" t="s">
         <v>122</v>
@@ -13746,7 +13961,7 @@
       <c r="E198" s="5"/>
       <c r="F198" s="5"/>
       <c r="G198" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H198" s="6" t="s">
         <v>122</v>
@@ -13769,7 +13984,7 @@
       <c r="E199" s="5"/>
       <c r="F199" s="5"/>
       <c r="G199" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H199" s="6" t="s">
         <v>122</v>
@@ -13792,7 +14007,7 @@
       <c r="E200" s="5"/>
       <c r="F200" s="5"/>
       <c r="G200" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H200" s="6" t="s">
         <v>122</v>
@@ -13815,7 +14030,7 @@
       <c r="E201" s="5"/>
       <c r="F201" s="5"/>
       <c r="G201" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H201" s="6" t="s">
         <v>122</v>
@@ -13838,7 +14053,7 @@
       <c r="E202" s="5"/>
       <c r="F202" s="5"/>
       <c r="G202" s="5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H202" s="6" t="s">
         <v>122</v>
@@ -13861,7 +14076,7 @@
       <c r="E203" s="5"/>
       <c r="F203" s="5"/>
       <c r="G203" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H203" s="6" t="s">
         <v>122</v>
@@ -13884,7 +14099,7 @@
       <c r="E204" s="5"/>
       <c r="F204" s="5"/>
       <c r="G204" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H204" s="6" t="s">
         <v>122</v>
@@ -13907,7 +14122,7 @@
       <c r="E205" s="5"/>
       <c r="F205" s="5"/>
       <c r="G205" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H205" s="6" t="s">
         <v>122</v>
@@ -13930,7 +14145,7 @@
       <c r="E206" s="5"/>
       <c r="F206" s="5"/>
       <c r="G206" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H206" s="6" t="s">
         <v>122</v>
@@ -13953,7 +14168,7 @@
       <c r="E207" s="5"/>
       <c r="F207" s="5"/>
       <c r="G207" s="5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H207" s="6" t="s">
         <v>122</v>
@@ -13976,7 +14191,7 @@
       <c r="E208" s="5"/>
       <c r="F208" s="5"/>
       <c r="G208" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H208" s="6" t="s">
         <v>122</v>
@@ -13999,7 +14214,7 @@
       <c r="E209" s="5"/>
       <c r="F209" s="5"/>
       <c r="G209" s="5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H209" s="6" t="s">
         <v>122</v>
@@ -14022,7 +14237,7 @@
       <c r="E210" s="5"/>
       <c r="F210" s="5"/>
       <c r="G210" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H210" s="6" t="s">
         <v>122</v>
@@ -14045,7 +14260,7 @@
       <c r="E211" s="5"/>
       <c r="F211" s="5"/>
       <c r="G211" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H211" s="6" t="s">
         <v>122</v>
@@ -14068,7 +14283,7 @@
       <c r="E212" s="5"/>
       <c r="F212" s="5"/>
       <c r="G212" s="5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H212" s="6" t="s">
         <v>122</v>
@@ -14091,7 +14306,7 @@
       <c r="E213" s="5"/>
       <c r="F213" s="5"/>
       <c r="G213" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H213" s="6" t="s">
         <v>122</v>
@@ -14114,7 +14329,7 @@
       <c r="E214" s="5"/>
       <c r="F214" s="5"/>
       <c r="G214" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H214" s="6" t="s">
         <v>122</v>
@@ -14136,7 +14351,7 @@
       <c r="E215" s="5"/>
       <c r="F215" s="5"/>
       <c r="G215" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H215" s="6" t="s">
         <v>122</v>
@@ -14158,7 +14373,7 @@
       <c r="E216" s="5"/>
       <c r="F216" s="5"/>
       <c r="G216" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H216" s="6" t="s">
         <v>122</v>
@@ -14180,7 +14395,7 @@
       <c r="E217" s="5"/>
       <c r="F217" s="5"/>
       <c r="G217" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H217" s="6" t="s">
         <v>122</v>
@@ -14202,7 +14417,7 @@
       <c r="E218" s="5"/>
       <c r="F218" s="5"/>
       <c r="G218" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H218" s="6" t="s">
         <v>122</v>
@@ -14224,7 +14439,7 @@
       <c r="E219" s="5"/>
       <c r="F219" s="5"/>
       <c r="G219" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H219" s="6" t="s">
         <v>122</v>
@@ -14246,7 +14461,7 @@
       <c r="E220" s="5"/>
       <c r="F220" s="5"/>
       <c r="G220" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H220" s="6" t="s">
         <v>122</v>
@@ -15000,7 +15215,7 @@
         <v>99999999999</v>
       </c>
       <c r="G249" s="35" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H249" s="6" t="s">
         <v>122</v>
@@ -15026,7 +15241,7 @@
         <v>99999999999</v>
       </c>
       <c r="G250" s="35" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H250" s="6" t="s">
         <v>122</v>
@@ -15052,7 +15267,7 @@
         <v>99999999999</v>
       </c>
       <c r="G251" s="35" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H251" s="6" t="s">
         <v>122</v>
@@ -15078,7 +15293,7 @@
         <v>99999999999</v>
       </c>
       <c r="G252" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H252" s="6" t="s">
         <v>122</v>
@@ -15104,7 +15319,7 @@
         <v>99999999999</v>
       </c>
       <c r="G253" s="35" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H253" s="6" t="s">
         <v>122</v>
@@ -15130,7 +15345,7 @@
         <v>99999999999</v>
       </c>
       <c r="G254" s="35" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H254" s="6" t="s">
         <v>122</v>
@@ -15156,7 +15371,7 @@
         <v>99999999999</v>
       </c>
       <c r="G255" s="35" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H255" s="6" t="s">
         <v>122</v>
@@ -15182,7 +15397,7 @@
         <v>99999999999</v>
       </c>
       <c r="G256" s="35" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H256" s="6" t="s">
         <v>122</v>
@@ -15208,7 +15423,7 @@
         <v>99999999999</v>
       </c>
       <c r="G257" s="35" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H257" s="6" t="s">
         <v>122</v>
@@ -15234,7 +15449,7 @@
         <v>99999999999</v>
       </c>
       <c r="G258" s="35" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H258" s="6" t="s">
         <v>122</v>
@@ -15260,7 +15475,7 @@
         <v>99999999999</v>
       </c>
       <c r="G259" s="35" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H259" s="6" t="s">
         <v>122</v>
@@ -15286,7 +15501,7 @@
         <v>99999999999</v>
       </c>
       <c r="G260" s="35" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H260" s="6" t="s">
         <v>122</v>
@@ -15312,7 +15527,7 @@
         <v>99999999999</v>
       </c>
       <c r="G261" s="35" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H261" s="6" t="s">
         <v>122</v>
@@ -15338,7 +15553,7 @@
         <v>99999999999</v>
       </c>
       <c r="G262" s="35" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H262" s="6" t="s">
         <v>122</v>
@@ -15360,7 +15575,7 @@
       <c r="E263" s="5"/>
       <c r="F263" s="5"/>
       <c r="G263" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H263" s="6" t="s">
         <v>122</v>
@@ -15382,7 +15597,7 @@
       <c r="E264" s="5"/>
       <c r="F264" s="5"/>
       <c r="G264" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H264" s="6" t="s">
         <v>122</v>
@@ -15404,7 +15619,7 @@
       <c r="E265" s="5"/>
       <c r="F265" s="5"/>
       <c r="G265" s="20" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H265" s="6" t="s">
         <v>122</v>
@@ -15426,7 +15641,7 @@
       <c r="E266" s="5"/>
       <c r="F266" s="5"/>
       <c r="G266" s="20" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H266" s="6" t="s">
         <v>122</v>
@@ -15448,7 +15663,7 @@
       <c r="E267" s="5"/>
       <c r="F267" s="5"/>
       <c r="G267" s="20" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H267" s="6" t="s">
         <v>122</v>
@@ -15474,10 +15689,10 @@
         <v>99999999999</v>
       </c>
       <c r="G268" s="37" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H268" s="37" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.2">
@@ -15500,10 +15715,10 @@
         <v>99999999999</v>
       </c>
       <c r="G269" s="37" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H269" s="37" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.2">
@@ -15526,10 +15741,10 @@
         <v>99999999999</v>
       </c>
       <c r="G270" s="37" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H270" s="37" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.2">
@@ -15552,10 +15767,10 @@
         <v>99999999999</v>
       </c>
       <c r="G271" s="37" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H271" s="37" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.2">
@@ -15578,10 +15793,10 @@
         <v>99999999999</v>
       </c>
       <c r="G272" s="37" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H272" s="37" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.2">
@@ -15604,10 +15819,10 @@
         <v>99999999999</v>
       </c>
       <c r="G273" s="37" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H273" s="37" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.2">
@@ -15630,10 +15845,192 @@
         <v>99999999999</v>
       </c>
       <c r="G274" s="37" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H274" s="37" t="s">
-        <v>573</v>
+        <v>572</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A275" s="36">
+        <v>274</v>
+      </c>
+      <c r="B275" s="36">
+        <v>41</v>
+      </c>
+      <c r="C275" s="36">
+        <v>1</v>
+      </c>
+      <c r="D275" s="36">
+        <v>1</v>
+      </c>
+      <c r="E275" s="36">
+        <v>1500000000</v>
+      </c>
+      <c r="F275" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G275" s="37" t="s">
+        <v>584</v>
+      </c>
+      <c r="H275" s="37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A276" s="36">
+        <v>275</v>
+      </c>
+      <c r="B276" s="36">
+        <v>41</v>
+      </c>
+      <c r="C276" s="36">
+        <v>2</v>
+      </c>
+      <c r="D276" s="36">
+        <v>2</v>
+      </c>
+      <c r="E276" s="36">
+        <v>900000000</v>
+      </c>
+      <c r="F276" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G276" s="37" t="s">
+        <v>585</v>
+      </c>
+      <c r="H276" s="37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A277" s="36">
+        <v>276</v>
+      </c>
+      <c r="B277" s="36">
+        <v>41</v>
+      </c>
+      <c r="C277" s="36">
+        <v>3</v>
+      </c>
+      <c r="D277" s="36">
+        <v>3</v>
+      </c>
+      <c r="E277" s="36">
+        <v>450000000</v>
+      </c>
+      <c r="F277" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G277" s="37" t="s">
+        <v>586</v>
+      </c>
+      <c r="H277" s="37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A278" s="36">
+        <v>277</v>
+      </c>
+      <c r="B278" s="36">
+        <v>41</v>
+      </c>
+      <c r="C278" s="36">
+        <v>4</v>
+      </c>
+      <c r="D278" s="36">
+        <v>6</v>
+      </c>
+      <c r="E278" s="36">
+        <v>220000000</v>
+      </c>
+      <c r="F278" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G278" s="37" t="s">
+        <v>587</v>
+      </c>
+      <c r="H278" s="37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A279" s="36">
+        <v>278</v>
+      </c>
+      <c r="B279" s="36">
+        <v>41</v>
+      </c>
+      <c r="C279" s="36">
+        <v>7</v>
+      </c>
+      <c r="D279" s="36">
+        <v>10</v>
+      </c>
+      <c r="E279" s="36">
+        <v>146000000</v>
+      </c>
+      <c r="F279" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G279" s="37" t="s">
+        <v>588</v>
+      </c>
+      <c r="H279" s="37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A280" s="36">
+        <v>279</v>
+      </c>
+      <c r="B280" s="36">
+        <v>41</v>
+      </c>
+      <c r="C280" s="36">
+        <v>11</v>
+      </c>
+      <c r="D280" s="36">
+        <v>15</v>
+      </c>
+      <c r="E280" s="36">
+        <v>88000000</v>
+      </c>
+      <c r="F280" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G280" s="37" t="s">
+        <v>589</v>
+      </c>
+      <c r="H280" s="37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A281" s="36">
+        <v>280</v>
+      </c>
+      <c r="B281" s="36">
+        <v>41</v>
+      </c>
+      <c r="C281" s="36">
+        <v>16</v>
+      </c>
+      <c r="D281" s="36">
+        <v>20</v>
+      </c>
+      <c r="E281" s="36">
+        <v>45000000</v>
+      </c>
+      <c r="F281" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G281" s="37" t="s">
+        <v>590</v>
+      </c>
+      <c r="H281" s="37" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -15645,11 +16042,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G312"/>
+  <dimension ref="A1:G326"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A282" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M307" sqref="M307"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A306" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J322" sqref="J322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -21515,7 +21912,7 @@
         <v>289</v>
       </c>
       <c r="C294" s="20" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D294" s="20" t="s">
         <v>158</v>
@@ -21535,7 +21932,7 @@
         <v>290</v>
       </c>
       <c r="C295" s="20" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D295" s="20" t="s">
         <v>158</v>
@@ -21555,7 +21952,7 @@
         <v>291</v>
       </c>
       <c r="C296" s="20" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D296" s="20" t="s">
         <v>158</v>
@@ -21575,7 +21972,7 @@
         <v>292</v>
       </c>
       <c r="C297" s="20" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D297" s="20" t="s">
         <v>158</v>
@@ -21595,7 +21992,7 @@
         <v>293</v>
       </c>
       <c r="C298" s="20" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D298" s="20" t="s">
         <v>158</v>
@@ -21884,6 +22281,286 @@
         <v>240</v>
       </c>
       <c r="F312" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A313" s="36">
+        <v>312</v>
+      </c>
+      <c r="B313" s="36">
+        <v>308</v>
+      </c>
+      <c r="C313" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D313" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E313" s="36">
+        <v>50000</v>
+      </c>
+      <c r="F313" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A314" s="36">
+        <v>313</v>
+      </c>
+      <c r="B314" s="36">
+        <v>309</v>
+      </c>
+      <c r="C314" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="D314" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E314" s="36">
+        <v>15000</v>
+      </c>
+      <c r="F314" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A315" s="36">
+        <v>314</v>
+      </c>
+      <c r="B315" s="36">
+        <v>310</v>
+      </c>
+      <c r="C315" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="D315" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E315" s="36">
+        <v>5000</v>
+      </c>
+      <c r="F315" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A316" s="36">
+        <v>315</v>
+      </c>
+      <c r="B316" s="36">
+        <v>311</v>
+      </c>
+      <c r="C316" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="D316" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E316" s="36">
+        <v>1500</v>
+      </c>
+      <c r="F316" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A317" s="36">
+        <v>316</v>
+      </c>
+      <c r="B317" s="36">
+        <v>312</v>
+      </c>
+      <c r="C317" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="D317" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E317" s="36">
+        <v>1000</v>
+      </c>
+      <c r="F317" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A318" s="36">
+        <v>317</v>
+      </c>
+      <c r="B318" s="36">
+        <v>313</v>
+      </c>
+      <c r="C318" s="37" t="s">
+        <v>231</v>
+      </c>
+      <c r="D318" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E318" s="36">
+        <v>500</v>
+      </c>
+      <c r="F318" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A319" s="36">
+        <v>318</v>
+      </c>
+      <c r="B319" s="36">
+        <v>314</v>
+      </c>
+      <c r="C319" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="D319" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E319" s="36">
+        <v>240</v>
+      </c>
+      <c r="F319" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A320" s="36">
+        <v>319</v>
+      </c>
+      <c r="B320" s="36">
+        <v>315</v>
+      </c>
+      <c r="C320" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D320" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E320" s="36">
+        <v>50000</v>
+      </c>
+      <c r="F320" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A321" s="36">
+        <v>320</v>
+      </c>
+      <c r="B321" s="36">
+        <v>316</v>
+      </c>
+      <c r="C321" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="D321" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E321" s="36">
+        <v>15000</v>
+      </c>
+      <c r="F321" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A322" s="36">
+        <v>321</v>
+      </c>
+      <c r="B322" s="36">
+        <v>317</v>
+      </c>
+      <c r="C322" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="D322" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E322" s="36">
+        <v>5000</v>
+      </c>
+      <c r="F322" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A323" s="36">
+        <v>322</v>
+      </c>
+      <c r="B323" s="36">
+        <v>318</v>
+      </c>
+      <c r="C323" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="D323" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E323" s="36">
+        <v>1500</v>
+      </c>
+      <c r="F323" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A324" s="36">
+        <v>323</v>
+      </c>
+      <c r="B324" s="36">
+        <v>319</v>
+      </c>
+      <c r="C324" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="D324" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E324" s="36">
+        <v>1000</v>
+      </c>
+      <c r="F324" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A325" s="36">
+        <v>324</v>
+      </c>
+      <c r="B325" s="36">
+        <v>320</v>
+      </c>
+      <c r="C325" s="37" t="s">
+        <v>231</v>
+      </c>
+      <c r="D325" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E325" s="36">
+        <v>500</v>
+      </c>
+      <c r="F325" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A326" s="36">
+        <v>325</v>
+      </c>
+      <c r="B326" s="36">
+        <v>321</v>
+      </c>
+      <c r="C326" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="D326" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E326" s="36">
+        <v>240</v>
+      </c>
+      <c r="F326" s="36">
         <v>1</v>
       </c>
     </row>
